--- a/tables/xlsx/Quest/WorldQuest.xlsx
+++ b/tables/xlsx/Quest/WorldQuest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\Projects\Planetarium\NineChronicles\tables\xlsx\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389C23DA-42B2-4C2F-9754-DBBBEF0F9F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C9F285-94DC-44AC-96FF-C267585908DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="3735" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,16 +48,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -65,12 +85,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -86,18 +186,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A34FDE39-5C5B-4BC7-9E10-EF7138BB8FFF}" name="WorldQuestSheet" displayName="WorldQuestSheet" ref="A1:C241" totalsRowShown="0">
-  <autoFilter ref="A1:C241" xr:uid="{A34FDE39-5C5B-4BC7-9E10-EF7138BB8FFF}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{90A9035A-F94E-4362-9BD7-73EDFDFA157D}" name="id"/>
-    <tableColumn id="2" xr3:uid="{EED73087-068E-40CF-AC83-E35CEFD4802D}" name="goal"/>
-    <tableColumn id="3" xr3:uid="{C0BD6B1B-ACF7-4418-A77F-5E67039E571E}" name="quest_reward_id"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,7 +454,7 @@
   <dimension ref="A1:C241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C241"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,2661 +464,2658 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>100001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="7">
         <v>100002</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>100003</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>100004</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>100005</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="7">
         <v>100006</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>100007</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="7">
         <v>100008</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>100009</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="7">
         <v>100010</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>100011</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="7">
         <v>100012</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>100013</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="7">
         <v>100014</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>100015</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="7">
         <v>100016</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="4">
         <v>100017</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="7">
         <v>100018</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="8">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="4">
         <v>100019</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="7">
         <v>100020</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="8">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="9">
         <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="4">
         <v>100021</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="7">
         <v>100022</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="8">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="9">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="4">
         <v>100023</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="7">
         <v>100024</v>
       </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="8">
+        <v>24</v>
+      </c>
+      <c r="C25" s="9">
         <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="4">
         <v>100025</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>25</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="7">
         <v>100026</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="4">
         <v>100027</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>27</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="7">
         <v>100028</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="8">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="4">
         <v>100029</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>29</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="7">
         <v>100030</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="8">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="9">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="4">
         <v>100031</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>31</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="7">
         <v>100032</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="8">
         <v>32</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="4">
         <v>100033</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>33</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="6">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="7">
         <v>100034</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="8">
         <v>34</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="4">
         <v>100035</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>35</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="7">
         <v>100036</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="8">
         <v>36</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="9">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="4">
         <v>100037</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>37</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="7">
         <v>100038</v>
       </c>
-      <c r="B39">
-        <v>38</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="8">
+        <v>38</v>
+      </c>
+      <c r="C39" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="4">
         <v>100039</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5">
         <v>39</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="7">
         <v>100040</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="8">
         <v>40</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="9">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="4">
         <v>100041</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>41</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="7">
         <v>100042</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="8">
         <v>42</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="4">
         <v>100043</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>43</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="6">
         <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="7">
         <v>100044</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="8">
         <v>44</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="4">
         <v>100045</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>45</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="7">
         <v>100046</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="8">
         <v>46</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="9">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="4">
         <v>100047</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
         <v>47</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="7">
         <v>100048</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="8">
         <v>48</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="4">
         <v>100049</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="5">
         <v>49</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="6">
         <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="7">
         <v>100050</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="8">
         <v>50</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="9">
         <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="4">
         <v>100051</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="5">
         <v>51</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="7">
         <v>100052</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="8">
         <v>52</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="4">
         <v>100053</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="5">
         <v>53</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="6">
         <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="7">
         <v>100054</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="8">
         <v>54</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="4">
         <v>100055</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="5">
         <v>55</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="7">
         <v>100056</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="8">
         <v>56</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="9">
         <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="4">
         <v>100057</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="5">
         <v>57</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="7">
         <v>100058</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="8">
         <v>58</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="4">
         <v>100059</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="5">
         <v>59</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="7">
         <v>100060</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="8">
         <v>60</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="9">
         <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="4">
         <v>100061</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="5">
         <v>61</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="7">
         <v>100062</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="8">
         <v>62</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="4">
         <v>100063</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="5">
         <v>63</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="6">
         <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="7">
         <v>100064</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="8">
         <v>64</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="4">
         <v>100065</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="5">
         <v>65</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="7">
         <v>100066</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="8">
         <v>66</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="9">
         <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="4">
         <v>100067</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="5">
         <v>67</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="7">
         <v>100068</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="8">
         <v>68</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="4">
         <v>100069</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="5">
         <v>69</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="7">
         <v>100070</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="8">
         <v>70</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="9">
         <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="4">
         <v>100071</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="5">
         <v>71</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="7">
         <v>100072</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="8">
         <v>72</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="4">
         <v>100073</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="5">
         <v>73</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="6">
         <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="7">
         <v>100074</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="8">
         <v>74</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="4">
         <v>100075</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="5">
         <v>75</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="7">
         <v>100076</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="8">
         <v>76</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="9">
         <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="4">
         <v>100077</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="5">
         <v>77</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="7">
         <v>100078</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="8">
         <v>78</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="4">
         <v>100079</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="5">
         <v>79</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="7">
         <v>100080</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="8">
         <v>80</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="9">
         <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="4">
         <v>100081</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="5">
         <v>81</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="7">
         <v>100082</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="8">
         <v>82</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="4">
         <v>100083</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="5">
         <v>83</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="6">
         <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="7">
         <v>100084</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="8">
         <v>84</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="4">
         <v>100085</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="5">
         <v>85</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="7">
         <v>100086</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="8">
         <v>86</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="9">
         <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="4">
         <v>100087</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="5">
         <v>87</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="7">
         <v>100088</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="8">
         <v>88</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="4">
         <v>100089</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="5">
         <v>89</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="7">
         <v>100090</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="8">
         <v>90</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="9">
         <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="4">
         <v>100091</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="5">
         <v>91</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="7">
         <v>100092</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="8">
         <v>92</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="4">
         <v>100093</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="5">
         <v>93</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="6">
         <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="7">
         <v>100094</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="8">
         <v>94</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="4">
         <v>100095</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="5">
         <v>95</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="7">
         <v>100096</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="8">
         <v>96</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="9">
         <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="4">
         <v>100097</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="5">
         <v>97</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="7">
         <v>100098</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="8">
         <v>98</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="4">
         <v>100099</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="5">
         <v>99</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="6">
         <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="7">
         <v>100100</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="8">
         <v>100</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="9">
         <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="4">
         <v>100101</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="5">
         <v>101</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="7">
         <v>100102</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="8">
         <v>102</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="4">
         <v>100103</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="5">
         <v>103</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="7">
         <v>100104</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="8">
         <v>104</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="4">
         <v>100105</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="5">
         <v>105</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="7">
         <v>100106</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="8">
         <v>106</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="4">
         <v>100107</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="5">
         <v>107</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="7">
         <v>100108</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="8">
         <v>108</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="4">
         <v>100109</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="5">
         <v>109</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="7">
         <v>100110</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="8">
         <v>110</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="9">
         <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="4">
         <v>100111</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="5">
         <v>111</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="7">
         <v>100112</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="8">
         <v>112</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="4">
         <v>100113</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="5">
         <v>113</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="7">
         <v>100114</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="8">
         <v>114</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="4">
         <v>100115</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="5">
         <v>115</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="7">
         <v>100116</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="8">
         <v>116</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="4">
         <v>100117</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="5">
         <v>117</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="7">
         <v>100118</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="8">
         <v>118</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="4">
         <v>100119</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="5">
         <v>119</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="7">
         <v>100120</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="8">
         <v>120</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="9">
         <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="4">
         <v>100121</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="5">
         <v>121</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="7">
         <v>100122</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="8">
         <v>122</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="4">
         <v>100123</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="5">
         <v>123</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="7">
         <v>100124</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="8">
         <v>124</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="4">
         <v>100125</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="5">
         <v>125</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="7">
         <v>100126</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="8">
         <v>126</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="4">
         <v>100127</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="5">
         <v>127</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="7">
         <v>100128</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="8">
         <v>128</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="4">
         <v>100129</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="5">
         <v>129</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="7">
         <v>100130</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="8">
         <v>130</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="9">
         <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="4">
         <v>100131</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="5">
         <v>131</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="7">
         <v>100132</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="8">
         <v>132</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="4">
         <v>100133</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="5">
         <v>133</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="7">
         <v>100134</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="8">
         <v>134</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="4">
         <v>100135</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="5">
         <v>135</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="7">
         <v>100136</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="8">
         <v>136</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="4">
         <v>100137</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="5">
         <v>137</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="7">
         <v>100138</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="8">
         <v>138</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="4">
         <v>100139</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="5">
         <v>139</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="7">
         <v>100140</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="8">
         <v>140</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="9">
         <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="4">
         <v>100141</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="5">
         <v>141</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="7">
         <v>100142</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="8">
         <v>142</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="4">
         <v>100143</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="5">
         <v>143</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="7">
         <v>100144</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="8">
         <v>144</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="4">
         <v>100145</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="5">
         <v>145</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="7">
         <v>100146</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="8">
         <v>146</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="4">
         <v>100147</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="5">
         <v>147</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="7">
         <v>100148</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="8">
         <v>148</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="4">
         <v>100149</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="5">
         <v>149</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="7">
         <v>100150</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="8">
         <v>150</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="9">
         <v>36</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="4">
         <v>100151</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="5">
         <v>151</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="7">
         <v>100152</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="8">
         <v>152</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="4">
         <v>100153</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="5">
         <v>153</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="7">
         <v>100154</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="8">
         <v>154</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="4">
         <v>100155</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="5">
         <v>155</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="7">
         <v>100156</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="8">
         <v>156</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="4">
         <v>100157</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="5">
         <v>157</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="7">
         <v>100158</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="8">
         <v>158</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="4">
         <v>100159</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="5">
         <v>159</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="7">
         <v>100160</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="8">
         <v>160</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="4">
         <v>100161</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="5">
         <v>161</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="7">
         <v>100162</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="8">
         <v>162</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="4">
         <v>100163</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="5">
         <v>163</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="7">
         <v>100164</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="8">
         <v>164</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="4">
         <v>100165</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="5">
         <v>165</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="7">
         <v>100166</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="8">
         <v>166</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="4">
         <v>100167</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="5">
         <v>167</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="7">
         <v>100168</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="8">
         <v>168</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="4">
         <v>100169</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="5">
         <v>169</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="7">
         <v>100170</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="8">
         <v>170</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="4">
         <v>100171</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="5">
         <v>171</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="7">
         <v>100172</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="8">
         <v>172</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="4">
         <v>100173</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="5">
         <v>173</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="7">
         <v>100174</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="8">
         <v>174</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="4">
         <v>100175</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="5">
         <v>175</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="7">
         <v>100176</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="8">
         <v>176</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="4">
         <v>100177</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="5">
         <v>177</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="7">
         <v>100178</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="8">
         <v>178</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="4">
         <v>100179</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="5">
         <v>179</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="7">
         <v>100180</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="8">
         <v>180</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="4">
         <v>100181</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="5">
         <v>181</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="7">
         <v>100182</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="8">
         <v>182</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="4">
         <v>100183</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="5">
         <v>183</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="7">
         <v>100184</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="8">
         <v>184</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="4">
         <v>100185</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="5">
         <v>185</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="7">
         <v>100186</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="8">
         <v>186</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="4">
         <v>100187</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="5">
         <v>187</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="7">
         <v>100188</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="8">
         <v>188</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="4">
         <v>100189</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="5">
         <v>189</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="7">
         <v>100190</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="8">
         <v>190</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="4">
         <v>100191</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="5">
         <v>191</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="7">
         <v>100192</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="8">
         <v>192</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="4">
         <v>100193</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="5">
         <v>193</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="7">
         <v>100194</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="8">
         <v>194</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="4">
         <v>100195</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="5">
         <v>195</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="7">
         <v>100196</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="8">
         <v>196</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="4">
         <v>100197</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="5">
         <v>197</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="7">
         <v>100198</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="8">
         <v>198</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" s="4">
         <v>100199</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="5">
         <v>199</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" s="7">
         <v>100200</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="8">
         <v>200</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="9">
         <v>37</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="4">
         <v>100201</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="5">
         <v>201</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" s="7">
         <v>100202</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="8">
         <v>202</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" s="4">
         <v>100203</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="5">
         <v>203</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" s="7">
         <v>100204</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="8">
         <v>204</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" s="4">
         <v>100205</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="5">
         <v>205</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="7">
         <v>100206</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="8">
         <v>206</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="A208" s="4">
         <v>100207</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="5">
         <v>207</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="A209" s="7">
         <v>100208</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="8">
         <v>208</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="A210" s="4">
         <v>100209</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="5">
         <v>209</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="A211" s="7">
         <v>100210</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="8">
         <v>210</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="A212" s="4">
         <v>100211</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="5">
         <v>211</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="A213" s="7">
         <v>100212</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="8">
         <v>212</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="A214" s="4">
         <v>100213</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="5">
         <v>213</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="A215" s="7">
         <v>100214</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="8">
         <v>214</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="A216" s="4">
         <v>100215</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="5">
         <v>215</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="A217" s="7">
         <v>100216</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="8">
         <v>216</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="A218" s="4">
         <v>100217</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="5">
         <v>217</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="A219" s="7">
         <v>100218</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="8">
         <v>218</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="A220" s="4">
         <v>100219</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="5">
         <v>219</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="A221" s="7">
         <v>100220</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="8">
         <v>220</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="A222" s="4">
         <v>100221</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="5">
         <v>221</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="A223" s="7">
         <v>100222</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="8">
         <v>222</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="A224" s="4">
         <v>100223</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="5">
         <v>223</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="A225" s="7">
         <v>100224</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="8">
         <v>224</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="A226" s="4">
         <v>100225</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="5">
         <v>225</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="A227" s="7">
         <v>100226</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="8">
         <v>226</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="A228" s="4">
         <v>100227</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="5">
         <v>227</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="A229" s="7">
         <v>100228</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="8">
         <v>228</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="A230" s="4">
         <v>100229</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="5">
         <v>229</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="7">
         <v>100230</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="8">
         <v>230</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="A232" s="4">
         <v>100231</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="5">
         <v>231</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="A233" s="7">
         <v>100232</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="8">
         <v>232</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="A234" s="4">
         <v>100233</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="5">
         <v>233</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="A235" s="7">
         <v>100234</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="8">
         <v>234</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="A236" s="4">
         <v>100235</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="5">
         <v>235</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="A237" s="7">
         <v>100236</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="8">
         <v>236</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="A238" s="4">
         <v>100237</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="5">
         <v>237</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="A239" s="7">
         <v>100238</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="8">
         <v>238</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="A240" s="4">
         <v>100239</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="5">
         <v>239</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="A241" s="1">
         <v>100240</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="2">
         <v>240</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="3">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
